--- a/natmiOut/OldD4/LR-pairs_lrc2p/Nid1-Itgav.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Nid1-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>54.8323925449814</v>
+        <v>65.314871</v>
       </c>
       <c r="H2">
-        <v>54.8323925449814</v>
+        <v>195.944613</v>
       </c>
       <c r="I2">
-        <v>0.1615508996763521</v>
+        <v>0.1781956339634425</v>
       </c>
       <c r="J2">
-        <v>0.1615508996763521</v>
+        <v>0.1880964998453822</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N2">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O2">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P2">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q2">
-        <v>423.9075460904816</v>
+        <v>697.8381026896413</v>
       </c>
       <c r="R2">
-        <v>423.9075460904816</v>
+        <v>6280.542924206772</v>
       </c>
       <c r="S2">
-        <v>0.005810482511798525</v>
+        <v>0.008384614183090612</v>
       </c>
       <c r="T2">
-        <v>0.005810482511798525</v>
+        <v>0.009203066850930549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>54.8323925449814</v>
+        <v>65.314871</v>
       </c>
       <c r="H3">
-        <v>54.8323925449814</v>
+        <v>195.944613</v>
       </c>
       <c r="I3">
-        <v>0.1615508996763521</v>
+        <v>0.1781956339634425</v>
       </c>
       <c r="J3">
-        <v>0.1615508996763521</v>
+        <v>0.1880964998453822</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N3">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P3">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q3">
-        <v>3697.266530522691</v>
+        <v>4595.707922364968</v>
       </c>
       <c r="R3">
-        <v>3697.266530522691</v>
+        <v>41361.37130128471</v>
       </c>
       <c r="S3">
-        <v>0.05067827339991408</v>
+        <v>0.05521801930660784</v>
       </c>
       <c r="T3">
-        <v>0.05067827339991408</v>
+        <v>0.06060805088438425</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>54.8323925449814</v>
+        <v>65.314871</v>
       </c>
       <c r="H4">
-        <v>54.8323925449814</v>
+        <v>195.944613</v>
       </c>
       <c r="I4">
-        <v>0.1615508996763521</v>
+        <v>0.1781956339634425</v>
       </c>
       <c r="J4">
-        <v>0.1615508996763521</v>
+        <v>0.1880964998453822</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N4">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O4">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P4">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q4">
-        <v>3017.816083592565</v>
+        <v>3859.525919104701</v>
       </c>
       <c r="R4">
-        <v>3017.816083592565</v>
+        <v>34735.73327194231</v>
       </c>
       <c r="S4">
-        <v>0.0413650753312991</v>
+        <v>0.04637269824706501</v>
       </c>
       <c r="T4">
-        <v>0.0413650753312991</v>
+        <v>0.05089930588415689</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>54.8323925449814</v>
+        <v>65.314871</v>
       </c>
       <c r="H5">
-        <v>54.8323925449814</v>
+        <v>195.944613</v>
       </c>
       <c r="I5">
-        <v>0.1615508996763521</v>
+        <v>0.1781956339634425</v>
       </c>
       <c r="J5">
-        <v>0.1615508996763521</v>
+        <v>0.1880964998453822</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N5">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O5">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P5">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q5">
-        <v>3333.25052313197</v>
+        <v>3973.25495925773</v>
       </c>
       <c r="R5">
-        <v>3333.25052313197</v>
+        <v>35759.29463331957</v>
       </c>
       <c r="S5">
-        <v>0.04568872163452266</v>
+        <v>0.04773916723094689</v>
       </c>
       <c r="T5">
-        <v>0.04568872163452266</v>
+        <v>0.05239916087256526</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>54.8323925449814</v>
+        <v>65.314871</v>
       </c>
       <c r="H6">
-        <v>54.8323925449814</v>
+        <v>195.944613</v>
       </c>
       <c r="I6">
-        <v>0.1615508996763521</v>
+        <v>0.1781956339634425</v>
       </c>
       <c r="J6">
-        <v>0.1615508996763521</v>
+        <v>0.1880964998453822</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N6">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O6">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P6">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q6">
-        <v>1313.810700769196</v>
+        <v>1704.612290351545</v>
       </c>
       <c r="R6">
-        <v>1313.810700769196</v>
+        <v>10227.67374210927</v>
       </c>
       <c r="S6">
-        <v>0.01800834679881767</v>
+        <v>0.02048113499573214</v>
       </c>
       <c r="T6">
-        <v>0.01800834679881767</v>
+        <v>0.01498691535334529</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>226.758476880865</v>
+        <v>243.0020346666667</v>
       </c>
       <c r="H7">
-        <v>226.758476880865</v>
+        <v>729.0061040000001</v>
       </c>
       <c r="I7">
-        <v>0.6680911455631148</v>
+        <v>0.6629715554644989</v>
       </c>
       <c r="J7">
-        <v>0.6680911455631148</v>
+        <v>0.6998074324621454</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N7">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O7">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P7">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q7">
-        <v>1753.062834362507</v>
+        <v>2596.285902815442</v>
       </c>
       <c r="R7">
-        <v>1753.062834362507</v>
+        <v>23366.57312533898</v>
       </c>
       <c r="S7">
-        <v>0.0240291569119015</v>
+        <v>0.03119470765525986</v>
       </c>
       <c r="T7">
-        <v>0.0240291569119015</v>
+        <v>0.03423973645985577</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>226.758476880865</v>
+        <v>243.0020346666667</v>
       </c>
       <c r="H8">
-        <v>226.758476880865</v>
+        <v>729.0061040000001</v>
       </c>
       <c r="I8">
-        <v>0.6680911455631148</v>
+        <v>0.6629715554644989</v>
       </c>
       <c r="J8">
-        <v>0.6680911455631148</v>
+        <v>0.6998074324621454</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N8">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P8">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q8">
-        <v>15289.98623206457</v>
+        <v>17098.19461893152</v>
       </c>
       <c r="R8">
-        <v>15289.98623206457</v>
+        <v>153883.7515703837</v>
       </c>
       <c r="S8">
-        <v>0.2095791840140736</v>
+        <v>0.2054369982874036</v>
       </c>
       <c r="T8">
-        <v>0.2095791840140736</v>
+        <v>0.2254904504379445</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>226.758476880865</v>
+        <v>243.0020346666667</v>
       </c>
       <c r="H9">
-        <v>226.758476880865</v>
+        <v>729.0061040000001</v>
       </c>
       <c r="I9">
-        <v>0.6680911455631148</v>
+        <v>0.6629715554644989</v>
       </c>
       <c r="J9">
-        <v>0.6680911455631148</v>
+        <v>0.6998074324621454</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N9">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O9">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P9">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q9">
-        <v>12480.1298440635</v>
+        <v>14359.25137463992</v>
       </c>
       <c r="R9">
-        <v>12480.1298440635</v>
+        <v>129233.2623717593</v>
       </c>
       <c r="S9">
-        <v>0.1710646032907082</v>
+        <v>0.1725282444027205</v>
       </c>
       <c r="T9">
-        <v>0.1710646032907082</v>
+        <v>0.1893693534657852</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>226.758476880865</v>
+        <v>243.0020346666667</v>
       </c>
       <c r="H10">
-        <v>226.758476880865</v>
+        <v>729.0061040000001</v>
       </c>
       <c r="I10">
-        <v>0.6680911455631148</v>
+        <v>0.6629715554644989</v>
       </c>
       <c r="J10">
-        <v>0.6680911455631148</v>
+        <v>0.6998074324621454</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N10">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O10">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P10">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q10">
-        <v>13784.60389208261</v>
+        <v>14782.37688548833</v>
       </c>
       <c r="R10">
-        <v>13784.60389208261</v>
+        <v>133041.391969395</v>
       </c>
       <c r="S10">
-        <v>0.188944972991634</v>
+        <v>0.177612151609583</v>
       </c>
       <c r="T10">
-        <v>0.188944972991634</v>
+        <v>0.1949495193347216</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>226.758476880865</v>
+        <v>243.0020346666667</v>
       </c>
       <c r="H11">
-        <v>226.758476880865</v>
+        <v>729.0061040000001</v>
       </c>
       <c r="I11">
-        <v>0.6680911455631148</v>
+        <v>0.6629715554644989</v>
       </c>
       <c r="J11">
-        <v>0.6680911455631148</v>
+        <v>0.6998074324621454</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N11">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O11">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P11">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q11">
-        <v>5433.243008169119</v>
+        <v>6341.959320002823</v>
       </c>
       <c r="R11">
-        <v>5433.243008169119</v>
+        <v>38051.75592001694</v>
       </c>
       <c r="S11">
-        <v>0.0744732283547975</v>
+        <v>0.07619945350953201</v>
       </c>
       <c r="T11">
-        <v>0.0744732283547975</v>
+        <v>0.05575837276383829</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>57.8216170092744</v>
+        <v>0.2323533333333333</v>
       </c>
       <c r="H12">
-        <v>57.8216170092744</v>
+        <v>0.69706</v>
       </c>
       <c r="I12">
-        <v>0.1703579547605332</v>
+        <v>0.0006339191810828563</v>
       </c>
       <c r="J12">
-        <v>0.1703579547605332</v>
+        <v>0.0006691408565655344</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N12">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O12">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P12">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q12">
-        <v>447.0171488008243</v>
+        <v>2.482512891848889</v>
       </c>
       <c r="R12">
-        <v>447.0171488008243</v>
+        <v>22.34261602664</v>
       </c>
       <c r="S12">
-        <v>0.006127244842739426</v>
+        <v>2.98277103564217E-05</v>
       </c>
       <c r="T12">
-        <v>0.006127244842739426</v>
+        <v>3.273930158574785E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>57.8216170092744</v>
+        <v>0.2323533333333333</v>
       </c>
       <c r="H13">
-        <v>57.8216170092744</v>
+        <v>0.69706</v>
       </c>
       <c r="I13">
-        <v>0.1703579547605332</v>
+        <v>0.0006339191810828563</v>
       </c>
       <c r="J13">
-        <v>0.1703579547605332</v>
+        <v>0.0006691408565655344</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N13">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P13">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q13">
-        <v>3898.825482286171</v>
+        <v>16.34892695092222</v>
       </c>
       <c r="R13">
-        <v>3898.825482286171</v>
+        <v>147.1403425583</v>
       </c>
       <c r="S13">
-        <v>0.05344103328734521</v>
+        <v>0.000196434451289886</v>
       </c>
       <c r="T13">
-        <v>0.05344103328734521</v>
+        <v>0.0002156091321044324</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>57.8216170092744</v>
+        <v>0.2323533333333333</v>
       </c>
       <c r="H14">
-        <v>57.8216170092744</v>
+        <v>0.69706</v>
       </c>
       <c r="I14">
-        <v>0.1703579547605332</v>
+        <v>0.0006339191810828563</v>
       </c>
       <c r="J14">
-        <v>0.1703579547605332</v>
+        <v>0.0006691408565655344</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N14">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O14">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P14">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q14">
-        <v>3182.334340905731</v>
+        <v>13.73000816904889</v>
       </c>
       <c r="R14">
-        <v>3182.334340905731</v>
+        <v>123.57007352144</v>
       </c>
       <c r="S14">
-        <v>0.04362012001216373</v>
+        <v>0.0001649678066939209</v>
       </c>
       <c r="T14">
-        <v>0.04362012001216373</v>
+        <v>0.0001810709139506193</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>57.8216170092744</v>
+        <v>0.2323533333333333</v>
       </c>
       <c r="H15">
-        <v>57.8216170092744</v>
+        <v>0.69706</v>
       </c>
       <c r="I15">
-        <v>0.1703579547605332</v>
+        <v>0.0006339191810828563</v>
       </c>
       <c r="J15">
-        <v>0.1703579547605332</v>
+        <v>0.0006691408565655344</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N15">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O15">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P15">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q15">
-        <v>3514.964899377539</v>
+        <v>14.13459170679111</v>
       </c>
       <c r="R15">
-        <v>3514.964899377539</v>
+        <v>127.21132536112</v>
       </c>
       <c r="S15">
-        <v>0.04817947277838621</v>
+        <v>0.0001698289297190519</v>
       </c>
       <c r="T15">
-        <v>0.04817947277838621</v>
+        <v>0.0001864065488640422</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2323533333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.69706</v>
+      </c>
+      <c r="I16">
+        <v>0.0006339191810828563</v>
+      </c>
+      <c r="J16">
+        <v>0.0006691408565655344</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>26.0983795</v>
+      </c>
+      <c r="N16">
+        <v>52.196759</v>
+      </c>
+      <c r="O16">
+        <v>0.1149362335102661</v>
+      </c>
+      <c r="P16">
+        <v>0.07967673702415903</v>
+      </c>
+      <c r="Q16">
+        <v>6.064045471423333</v>
+      </c>
+      <c r="R16">
+        <v>36.38427282854</v>
+      </c>
+      <c r="S16">
+        <v>7.286028302357587E-05</v>
+      </c>
+      <c r="T16">
+        <v>5.33149600606926E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1053443333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.316033</v>
+      </c>
+      <c r="I17">
+        <v>0.0002874062212078707</v>
+      </c>
+      <c r="J17">
+        <v>0.0003033750212649923</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.68421466666667</v>
+      </c>
+      <c r="N17">
+        <v>32.052644</v>
+      </c>
+      <c r="O17">
+        <v>0.04705285980693976</v>
+      </c>
+      <c r="P17">
+        <v>0.04892736897547583</v>
+      </c>
+      <c r="Q17">
+        <v>1.125521471250222</v>
+      </c>
+      <c r="R17">
+        <v>10.129693241252</v>
+      </c>
+      <c r="S17">
+        <v>1.352328463413626E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.484334160337511E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1053443333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.316033</v>
+      </c>
+      <c r="I18">
+        <v>0.0002874062212078707</v>
+      </c>
+      <c r="J18">
+        <v>0.0003033750212649923</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>70.36235166666667</v>
+      </c>
+      <c r="N18">
+        <v>211.087055</v>
+      </c>
+      <c r="O18">
+        <v>0.3098730203341347</v>
+      </c>
+      <c r="P18">
+        <v>0.3222178559101571</v>
+      </c>
+      <c r="Q18">
+        <v>7.412275028090556</v>
+      </c>
+      <c r="R18">
+        <v>66.710475252815</v>
+      </c>
+      <c r="S18">
+        <v>8.905943382850333E-05</v>
+      </c>
+      <c r="T18">
+        <v>9.775284888870413E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1053443333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.316033</v>
+      </c>
+      <c r="I19">
+        <v>0.0002874062212078707</v>
+      </c>
+      <c r="J19">
+        <v>0.0003033750212649923</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>59.09107466666666</v>
+      </c>
+      <c r="N19">
+        <v>177.273224</v>
+      </c>
+      <c r="O19">
+        <v>0.2602347611759026</v>
+      </c>
+      <c r="P19">
+        <v>0.2706020894912812</v>
+      </c>
+      <c r="Q19">
+        <v>6.224909866710222</v>
+      </c>
+      <c r="R19">
+        <v>56.024188800392</v>
+      </c>
+      <c r="S19">
+        <v>7.479308933649887E-05</v>
+      </c>
+      <c r="T19">
+        <v>8.20939146537688E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1053443333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.316033</v>
+      </c>
+      <c r="I20">
+        <v>0.0002874062212078707</v>
+      </c>
+      <c r="J20">
+        <v>0.0003033750212649923</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>60.83231733333333</v>
+      </c>
+      <c r="N20">
+        <v>182.496952</v>
+      </c>
+      <c r="O20">
+        <v>0.2679031251727568</v>
+      </c>
+      <c r="P20">
+        <v>0.2785759485989269</v>
+      </c>
+      <c r="Q20">
+        <v>6.408339914601777</v>
+      </c>
+      <c r="R20">
+        <v>57.675059231416</v>
+      </c>
+      <c r="S20">
+        <v>7.699702485568122E-05</v>
+      </c>
+      <c r="T20">
+        <v>8.451298433011485E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1053443333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.316033</v>
+      </c>
+      <c r="I21">
+        <v>0.0002874062212078707</v>
+      </c>
+      <c r="J21">
+        <v>0.0003033750212649923</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>26.0983795</v>
+      </c>
+      <c r="N21">
+        <v>52.196759</v>
+      </c>
+      <c r="O21">
+        <v>0.1149362335102661</v>
+      </c>
+      <c r="P21">
+        <v>0.07967673702415903</v>
+      </c>
+      <c r="Q21">
+        <v>2.749316389507833</v>
+      </c>
+      <c r="R21">
+        <v>16.495898337047</v>
+      </c>
+      <c r="S21">
+        <v>3.303338855305103E-05</v>
+      </c>
+      <c r="T21">
+        <v>2.417193178902945E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>57.880028</v>
+      </c>
+      <c r="H22">
+        <v>115.760056</v>
+      </c>
+      <c r="I22">
+        <v>0.1579114851697679</v>
+      </c>
+      <c r="J22">
+        <v>0.1111235518146418</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>10.68421466666667</v>
+      </c>
+      <c r="N22">
+        <v>32.052644</v>
+      </c>
+      <c r="O22">
+        <v>0.04705285980693976</v>
+      </c>
+      <c r="P22">
+        <v>0.04892736897547583</v>
+      </c>
+      <c r="Q22">
+        <v>618.4026440646774</v>
+      </c>
+      <c r="R22">
+        <v>3710.415864388064</v>
+      </c>
+      <c r="S22">
+        <v>0.007430186973598736</v>
+      </c>
+      <c r="T22">
+        <v>0.005436983021500388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>57.880028</v>
+      </c>
+      <c r="H23">
+        <v>115.760056</v>
+      </c>
+      <c r="I23">
+        <v>0.1579114851697679</v>
+      </c>
+      <c r="J23">
+        <v>0.1111235518146418</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>70.36235166666667</v>
+      </c>
+      <c r="N23">
+        <v>211.087055</v>
+      </c>
+      <c r="O23">
+        <v>0.3098730203341347</v>
+      </c>
+      <c r="P23">
+        <v>0.3222178559101571</v>
+      </c>
+      <c r="Q23">
+        <v>4072.574884612514</v>
+      </c>
+      <c r="R23">
+        <v>24435.44930767508</v>
+      </c>
+      <c r="S23">
+        <v>0.0489325088550049</v>
+      </c>
+      <c r="T23">
+        <v>0.03580599260683513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>57.8216170092744</v>
-      </c>
-      <c r="H16">
-        <v>57.8216170092744</v>
-      </c>
-      <c r="I16">
-        <v>0.1703579547605332</v>
-      </c>
-      <c r="J16">
-        <v>0.1703579547605332</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>23.9604846659102</v>
-      </c>
-      <c r="N16">
-        <v>23.9604846659102</v>
-      </c>
-      <c r="O16">
-        <v>0.1114716589935138</v>
-      </c>
-      <c r="P16">
-        <v>0.1114716589935138</v>
-      </c>
-      <c r="Q16">
-        <v>1385.433967708852</v>
-      </c>
-      <c r="R16">
-        <v>1385.433967708852</v>
-      </c>
-      <c r="S16">
-        <v>0.0189900838398986</v>
-      </c>
-      <c r="T16">
-        <v>0.0189900838398986</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>57.880028</v>
+      </c>
+      <c r="H24">
+        <v>115.760056</v>
+      </c>
+      <c r="I24">
+        <v>0.1579114851697679</v>
+      </c>
+      <c r="J24">
+        <v>0.1111235518146418</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>59.09107466666666</v>
+      </c>
+      <c r="N24">
+        <v>177.273224</v>
+      </c>
+      <c r="O24">
+        <v>0.2602347611759026</v>
+      </c>
+      <c r="P24">
+        <v>0.2706020894912812</v>
+      </c>
+      <c r="Q24">
+        <v>3420.193056256757</v>
+      </c>
+      <c r="R24">
+        <v>20521.15833754055</v>
+      </c>
+      <c r="S24">
+        <v>0.04109405763008663</v>
+      </c>
+      <c r="T24">
+        <v>0.03007026531273473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>57.880028</v>
+      </c>
+      <c r="H25">
+        <v>115.760056</v>
+      </c>
+      <c r="I25">
+        <v>0.1579114851697679</v>
+      </c>
+      <c r="J25">
+        <v>0.1111235518146418</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>60.83231733333333</v>
+      </c>
+      <c r="N25">
+        <v>182.496952</v>
+      </c>
+      <c r="O25">
+        <v>0.2679031251727568</v>
+      </c>
+      <c r="P25">
+        <v>0.2785759485989269</v>
+      </c>
+      <c r="Q25">
+        <v>3520.976230558219</v>
+      </c>
+      <c r="R25">
+        <v>21125.85738334931</v>
+      </c>
+      <c r="S25">
+        <v>0.04230498037765226</v>
+      </c>
+      <c r="T25">
+        <v>0.03095634885844585</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>57.880028</v>
+      </c>
+      <c r="H26">
+        <v>115.760056</v>
+      </c>
+      <c r="I26">
+        <v>0.1579114851697679</v>
+      </c>
+      <c r="J26">
+        <v>0.1111235518146418</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>26.0983795</v>
+      </c>
+      <c r="N26">
+        <v>52.196759</v>
+      </c>
+      <c r="O26">
+        <v>0.1149362335102661</v>
+      </c>
+      <c r="P26">
+        <v>0.07967673702415903</v>
+      </c>
+      <c r="Q26">
+        <v>1510.574936214626</v>
+      </c>
+      <c r="R26">
+        <v>6042.299744858505</v>
+      </c>
+      <c r="S26">
+        <v>0.01814975133342537</v>
+      </c>
+      <c r="T26">
+        <v>0.008853962015125727</v>
       </c>
     </row>
   </sheetData>
